--- a/qualys_scan/pandas_conditional.xlsx
+++ b/qualys_scan/pandas_conditional.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Blared_Desk\Desktop\DC_Project\qualys_scan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89EEA24-6497-4BD9-9DC7-31F24E1B62FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$155</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="490">
   <si>
     <t>IP</t>
   </si>
@@ -1481,16 +1500,19 @@
   </si>
   <si>
     <t>AVAILABLE-10.14.140.201.ips.svale.netledger.com</t>
+  </si>
+  <si>
+    <t>Match / No Match</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1515,7 +1537,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1538,22 +1560,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1600,7 +1644,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1632,9 +1676,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1666,6 +1728,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1841,14 +1921,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G155"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G160" sqref="G160"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1870,8 +1963,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1893,8 +1989,12 @@
       <c r="G2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="str">
+        <f>IF(C2=G2,"Match","No Match")</f>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1916,8 +2016,12 @@
       <c r="G3" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H66" si="0">IF(C3=G3,"Match","No Match")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1939,8 +2043,12 @@
       <c r="G4" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1962,8 +2070,12 @@
       <c r="G5" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1985,8 +2097,12 @@
       <c r="G6" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2008,8 +2124,12 @@
       <c r="G7" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2031,8 +2151,12 @@
       <c r="G8" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2054,8 +2178,12 @@
       <c r="G9" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2077,8 +2205,12 @@
       <c r="G10" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2100,8 +2232,12 @@
       <c r="G11" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -2123,8 +2259,12 @@
       <c r="G12" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -2146,8 +2286,12 @@
       <c r="G13" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -2169,8 +2313,12 @@
       <c r="G14" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -2192,8 +2340,12 @@
       <c r="G15" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -2215,8 +2367,12 @@
       <c r="G16" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -2238,8 +2394,12 @@
       <c r="G17" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -2261,8 +2421,12 @@
       <c r="G18" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -2284,8 +2448,12 @@
       <c r="G19" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -2307,8 +2475,12 @@
       <c r="G20" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -2330,8 +2502,12 @@
       <c r="G21" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -2353,8 +2529,12 @@
       <c r="G22" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -2376,8 +2556,12 @@
       <c r="G23" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2399,8 +2583,12 @@
       <c r="G24" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -2422,8 +2610,12 @@
       <c r="G25" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -2445,8 +2637,12 @@
       <c r="G26" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -2468,8 +2664,12 @@
       <c r="G27" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -2491,8 +2691,12 @@
       <c r="G28" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -2514,8 +2718,12 @@
       <c r="G29" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -2537,8 +2745,12 @@
       <c r="G30" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -2560,8 +2772,12 @@
       <c r="G31" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -2583,8 +2799,12 @@
       <c r="G32" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -2606,8 +2826,12 @@
       <c r="G33" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -2629,8 +2853,12 @@
       <c r="G34" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -2652,8 +2880,12 @@
       <c r="G35" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -2675,8 +2907,12 @@
       <c r="G36" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" t="str">
+        <f t="shared" si="0"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -2698,8 +2934,12 @@
       <c r="G37" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -2721,8 +2961,12 @@
       <c r="G38" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -2744,8 +2988,12 @@
       <c r="G39" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -2767,8 +3015,12 @@
       <c r="G40" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -2790,8 +3042,12 @@
       <c r="G41" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -2813,8 +3069,12 @@
       <c r="G42" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -2836,8 +3096,12 @@
       <c r="G43" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -2859,8 +3123,12 @@
       <c r="G44" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -2882,8 +3150,12 @@
       <c r="G45" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -2905,8 +3177,12 @@
       <c r="G46" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -2928,8 +3204,12 @@
       <c r="G47" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -2951,8 +3231,12 @@
       <c r="G48" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -2974,8 +3258,12 @@
       <c r="G49" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -2997,8 +3285,12 @@
       <c r="G50" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -3020,8 +3312,12 @@
       <c r="G51" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -3043,8 +3339,12 @@
       <c r="G52" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -3066,8 +3366,12 @@
       <c r="G53" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -3089,8 +3393,12 @@
       <c r="G54" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -3112,8 +3420,12 @@
       <c r="G55" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -3135,8 +3447,12 @@
       <c r="G56" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -3158,8 +3474,12 @@
       <c r="G57" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -3181,8 +3501,12 @@
       <c r="G58" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -3204,8 +3528,12 @@
       <c r="G59" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -3227,8 +3555,12 @@
       <c r="G60" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -3250,8 +3582,12 @@
       <c r="G61" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -3273,8 +3609,12 @@
       <c r="G62" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -3296,8 +3636,12 @@
       <c r="G63" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -3319,8 +3663,12 @@
       <c r="G64" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -3342,8 +3690,12 @@
       <c r="G65" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>71</v>
       </c>
@@ -3365,8 +3717,12 @@
       <c r="G66" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>72</v>
       </c>
@@ -3388,8 +3744,12 @@
       <c r="G67" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67" t="str">
+        <f t="shared" ref="H67:H130" si="1">IF(C67=G67,"Match","No Match")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -3411,8 +3771,12 @@
       <c r="G68" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -3434,8 +3798,12 @@
       <c r="G69" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -3457,8 +3825,12 @@
       <c r="G70" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -3480,8 +3852,12 @@
       <c r="G71" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -3503,8 +3879,12 @@
       <c r="G72" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>78</v>
       </c>
@@ -3526,8 +3906,12 @@
       <c r="G73" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -3549,8 +3933,12 @@
       <c r="G74" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -3572,8 +3960,12 @@
       <c r="G75" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -3595,8 +3987,12 @@
       <c r="G76" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -3618,8 +4014,12 @@
       <c r="G77" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H77" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>83</v>
       </c>
@@ -3641,8 +4041,12 @@
       <c r="G78" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="H78" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>84</v>
       </c>
@@ -3664,8 +4068,12 @@
       <c r="G79" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>85</v>
       </c>
@@ -3687,8 +4095,12 @@
       <c r="G80" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80" t="str">
+        <f t="shared" si="1"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>86</v>
       </c>
@@ -3710,8 +4122,12 @@
       <c r="G81" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="H81" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -3733,8 +4149,12 @@
       <c r="G82" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82" t="str">
+        <f t="shared" si="1"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -3756,8 +4176,12 @@
       <c r="G83" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="H83" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>89</v>
       </c>
@@ -3779,8 +4203,12 @@
       <c r="G84" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>90</v>
       </c>
@@ -3802,8 +4230,12 @@
       <c r="G85" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="H85" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>91</v>
       </c>
@@ -3825,8 +4257,12 @@
       <c r="G86" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="H86" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>92</v>
       </c>
@@ -3848,8 +4284,12 @@
       <c r="G87" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="H87" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>93</v>
       </c>
@@ -3871,8 +4311,12 @@
       <c r="G88" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="H88" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>94</v>
       </c>
@@ -3894,8 +4338,12 @@
       <c r="G89" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="H89" t="str">
+        <f t="shared" si="1"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -3917,8 +4365,12 @@
       <c r="G90" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90" t="str">
+        <f t="shared" si="1"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -3940,8 +4392,12 @@
       <c r="G91" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="H91" t="str">
+        <f t="shared" si="1"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>97</v>
       </c>
@@ -3963,8 +4419,12 @@
       <c r="G92" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="H92" t="str">
+        <f t="shared" si="1"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>98</v>
       </c>
@@ -3986,8 +4446,12 @@
       <c r="G93" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="H93" t="str">
+        <f t="shared" si="1"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>99</v>
       </c>
@@ -4009,8 +4473,12 @@
       <c r="G94" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="H94" t="str">
+        <f t="shared" si="1"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>100</v>
       </c>
@@ -4032,8 +4500,12 @@
       <c r="G95" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="H95" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>101</v>
       </c>
@@ -4055,8 +4527,12 @@
       <c r="G96" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>102</v>
       </c>
@@ -4078,8 +4554,12 @@
       <c r="G97" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>103</v>
       </c>
@@ -4101,8 +4581,12 @@
       <c r="G98" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="H98" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>104</v>
       </c>
@@ -4124,8 +4608,12 @@
       <c r="G99" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>105</v>
       </c>
@@ -4147,8 +4635,12 @@
       <c r="G100" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100" t="str">
+        <f t="shared" si="1"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>106</v>
       </c>
@@ -4170,8 +4662,12 @@
       <c r="G101" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="H101" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>107</v>
       </c>
@@ -4193,8 +4689,12 @@
       <c r="G102" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>108</v>
       </c>
@@ -4216,8 +4716,12 @@
       <c r="G103" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>109</v>
       </c>
@@ -4239,8 +4743,12 @@
       <c r="G104" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="H104" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>110</v>
       </c>
@@ -4262,8 +4770,12 @@
       <c r="G105" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="H105" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>111</v>
       </c>
@@ -4285,8 +4797,12 @@
       <c r="G106" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="H106" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>112</v>
       </c>
@@ -4308,8 +4824,12 @@
       <c r="G107" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="H107" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>113</v>
       </c>
@@ -4331,8 +4851,12 @@
       <c r="G108" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="H108" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>114</v>
       </c>
@@ -4354,8 +4878,12 @@
       <c r="G109" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="H109" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>115</v>
       </c>
@@ -4377,8 +4905,12 @@
       <c r="G110" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="H110" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>116</v>
       </c>
@@ -4400,8 +4932,12 @@
       <c r="G111" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="H111" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>117</v>
       </c>
@@ -4423,8 +4959,12 @@
       <c r="G112" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="113" spans="1:7">
+      <c r="H112" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>118</v>
       </c>
@@ -4446,8 +4986,12 @@
       <c r="G113" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="H113" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>119</v>
       </c>
@@ -4469,8 +5013,12 @@
       <c r="G114" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="H114" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>120</v>
       </c>
@@ -4492,8 +5040,12 @@
       <c r="G115" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="116" spans="1:7">
+      <c r="H115" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>121</v>
       </c>
@@ -4515,8 +5067,12 @@
       <c r="G116" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="117" spans="1:7">
+      <c r="H116" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>122</v>
       </c>
@@ -4538,8 +5094,12 @@
       <c r="G117" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="118" spans="1:7">
+      <c r="H117" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>123</v>
       </c>
@@ -4561,8 +5121,12 @@
       <c r="G118" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="119" spans="1:7">
+      <c r="H118" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>124</v>
       </c>
@@ -4584,8 +5148,12 @@
       <c r="G119" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="H119" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>125</v>
       </c>
@@ -4607,8 +5175,12 @@
       <c r="G120" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="121" spans="1:7">
+      <c r="H120" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>126</v>
       </c>
@@ -4630,8 +5202,12 @@
       <c r="G121" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="122" spans="1:7">
+      <c r="H121" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>127</v>
       </c>
@@ -4653,8 +5229,12 @@
       <c r="G122" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="123" spans="1:7">
+      <c r="H122" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>128</v>
       </c>
@@ -4676,8 +5256,12 @@
       <c r="G123" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="124" spans="1:7">
+      <c r="H123" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>129</v>
       </c>
@@ -4699,8 +5283,12 @@
       <c r="G124" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="125" spans="1:7">
+      <c r="H124" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>130</v>
       </c>
@@ -4722,8 +5310,12 @@
       <c r="G125" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="126" spans="1:7">
+      <c r="H125" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>131</v>
       </c>
@@ -4745,8 +5337,12 @@
       <c r="G126" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="127" spans="1:7">
+      <c r="H126" t="str">
+        <f t="shared" si="1"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>132</v>
       </c>
@@ -4768,8 +5364,12 @@
       <c r="G127" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="128" spans="1:7">
+      <c r="H127" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>133</v>
       </c>
@@ -4791,8 +5391,12 @@
       <c r="G128" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="129" spans="1:7">
+      <c r="H128" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>134</v>
       </c>
@@ -4814,8 +5418,12 @@
       <c r="G129" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="130" spans="1:7">
+      <c r="H129" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>135</v>
       </c>
@@ -4837,8 +5445,12 @@
       <c r="G130" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="131" spans="1:7">
+      <c r="H130" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>136</v>
       </c>
@@ -4860,8 +5472,12 @@
       <c r="G131" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="132" spans="1:7">
+      <c r="H131" t="str">
+        <f t="shared" ref="H131:H155" si="2">IF(C131=G131,"Match","No Match")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>137</v>
       </c>
@@ -4883,8 +5499,12 @@
       <c r="G132" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="133" spans="1:7">
+      <c r="H132" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>138</v>
       </c>
@@ -4906,8 +5526,12 @@
       <c r="G133" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="134" spans="1:7">
+      <c r="H133" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>139</v>
       </c>
@@ -4929,8 +5553,12 @@
       <c r="G134" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="135" spans="1:7">
+      <c r="H134" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>140</v>
       </c>
@@ -4952,8 +5580,12 @@
       <c r="G135" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="136" spans="1:7">
+      <c r="H135" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>141</v>
       </c>
@@ -4975,8 +5607,12 @@
       <c r="G136" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="137" spans="1:7">
+      <c r="H136" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>142</v>
       </c>
@@ -4998,8 +5634,12 @@
       <c r="G137" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="138" spans="1:7">
+      <c r="H137" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>143</v>
       </c>
@@ -5021,8 +5661,12 @@
       <c r="G138" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="139" spans="1:7">
+      <c r="H138" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>144</v>
       </c>
@@ -5044,8 +5688,12 @@
       <c r="G139" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="140" spans="1:7">
+      <c r="H139" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>145</v>
       </c>
@@ -5067,8 +5715,12 @@
       <c r="G140" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="141" spans="1:7">
+      <c r="H140" t="str">
+        <f t="shared" si="2"/>
+        <v>No Match</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>146</v>
       </c>
@@ -5090,8 +5742,12 @@
       <c r="G141" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="142" spans="1:7">
+      <c r="H141" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>147</v>
       </c>
@@ -5113,8 +5769,12 @@
       <c r="G142" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="143" spans="1:7">
+      <c r="H142" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>148</v>
       </c>
@@ -5136,8 +5796,12 @@
       <c r="G143" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="144" spans="1:7">
+      <c r="H143" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>149</v>
       </c>
@@ -5159,8 +5823,12 @@
       <c r="G144" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="145" spans="1:7">
+      <c r="H144" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>150</v>
       </c>
@@ -5182,8 +5850,12 @@
       <c r="G145" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="146" spans="1:7">
+      <c r="H145" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>151</v>
       </c>
@@ -5205,8 +5877,12 @@
       <c r="G146" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="147" spans="1:7">
+      <c r="H146" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>152</v>
       </c>
@@ -5228,8 +5904,12 @@
       <c r="G147" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="148" spans="1:7">
+      <c r="H147" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>153</v>
       </c>
@@ -5251,8 +5931,12 @@
       <c r="G148" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="149" spans="1:7">
+      <c r="H148" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>154</v>
       </c>
@@ -5274,8 +5958,12 @@
       <c r="G149" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="150" spans="1:7">
+      <c r="H149" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>155</v>
       </c>
@@ -5297,8 +5985,12 @@
       <c r="G150" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="151" spans="1:7">
+      <c r="H150" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>156</v>
       </c>
@@ -5320,8 +6012,12 @@
       <c r="G151" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="152" spans="1:7">
+      <c r="H151" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>157</v>
       </c>
@@ -5343,8 +6039,12 @@
       <c r="G152" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="153" spans="1:7">
+      <c r="H152" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>158</v>
       </c>
@@ -5366,8 +6066,12 @@
       <c r="G153" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="154" spans="1:7">
+      <c r="H153" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>159</v>
       </c>
@@ -5389,8 +6093,12 @@
       <c r="G154" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="155" spans="1:7">
+      <c r="H154" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>160</v>
       </c>
@@ -5412,8 +6120,19 @@
       <c r="G155" t="s">
         <v>468</v>
       </c>
+      <c r="H155" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H155" xr:uid="{9DF0D002-4B59-4EBB-82CC-9D6BC73E37F9}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="No Match"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/qualys_scan/pandas_conditional.xlsx
+++ b/qualys_scan/pandas_conditional.xlsx
@@ -1,39 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Blared_Desk\Desktop\DC_Project\qualys_scan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89EEA24-6497-4BD9-9DC7-31F24E1B62FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$155</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="496">
   <si>
     <t>IP</t>
   </si>
@@ -56,6 +37,12 @@
     <t>CNAME</t>
   </si>
   <si>
+    <t>Match / No Match</t>
+  </si>
+  <si>
+    <t>Console IP</t>
+  </si>
+  <si>
     <t>10.1.155.230</t>
   </si>
   <si>
@@ -1502,17 +1489,29 @@
     <t>AVAILABLE-10.14.140.201.ips.svale.netledger.com</t>
   </si>
   <si>
-    <t>Match / No Match</t>
+    <t>No Match</t>
+  </si>
+  <si>
+    <t>Match</t>
+  </si>
+  <si>
+    <t>10.14.145.201</t>
+  </si>
+  <si>
+    <t>10.14.145.200</t>
+  </si>
+  <si>
+    <t>10.14.145.146</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1537,7 +1536,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1560,44 +1559,22 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1644,7 +1621,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1676,27 +1653,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1728,24 +1687,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1921,27 +1862,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H155"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G160" sqref="G160"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1963,424 +1891,451 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D2" s="2">
         <v>44198</v>
       </c>
       <c r="E2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G2" t="s">
-        <v>473</v>
-      </c>
-      <c r="H2" t="str">
-        <f>IF(C2=G2,"Match","No Match")</f>
-        <v>No Match</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+      <c r="H2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D3" s="2">
         <v>44212</v>
       </c>
       <c r="E3" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F3" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G3" t="s">
-        <v>316</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H66" si="0">IF(C3=G3,"Match","No Match")</f>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+      <c r="H3" t="s">
+        <v>492</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D4" s="2">
         <v>44212</v>
       </c>
       <c r="E4" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F4" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G4" t="s">
-        <v>317</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="H4" t="s">
+        <v>492</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C5" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D5" s="2">
         <v>44212</v>
       </c>
       <c r="E5" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F5" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G5" t="s">
-        <v>318</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="H5" t="s">
+        <v>492</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D6" s="2">
         <v>44212</v>
       </c>
       <c r="E6" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F6" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G6" t="s">
-        <v>319</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="H6" t="s">
+        <v>492</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D7" s="2">
         <v>44212</v>
       </c>
       <c r="E7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G7" t="s">
-        <v>320</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+      <c r="H7" t="s">
+        <v>492</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D8" s="2">
         <v>44212</v>
       </c>
       <c r="E8" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F8" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G8" t="s">
-        <v>321</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+      <c r="H8" t="s">
+        <v>492</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C9" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D9" s="2">
         <v>44212</v>
       </c>
       <c r="E9" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F9" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G9" t="s">
-        <v>322</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="H9" t="s">
+        <v>492</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D10" s="2">
         <v>44212</v>
       </c>
       <c r="E10" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F10" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G10" t="s">
-        <v>323</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+      <c r="H10" t="s">
+        <v>492</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D11" s="2">
         <v>44212</v>
       </c>
       <c r="E11" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F11" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G11" t="s">
-        <v>324</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="H11" t="s">
+        <v>492</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D12" s="2">
         <v>44213</v>
       </c>
       <c r="E12" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F12" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G12" t="s">
-        <v>325</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="H12" t="s">
+        <v>492</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C13" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D13" s="2">
         <v>44212</v>
       </c>
       <c r="E13" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F13" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G13" t="s">
-        <v>326</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="H13" t="s">
+        <v>492</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C14" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D14" s="2">
         <v>44210</v>
       </c>
       <c r="E14" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F14" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G14" t="s">
-        <v>327</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="H14" t="s">
+        <v>492</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C15" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D15" s="2">
         <v>44210</v>
       </c>
       <c r="E15" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F15" t="s">
+        <v>474</v>
+      </c>
+      <c r="G15" t="s">
+        <v>330</v>
+      </c>
+      <c r="H15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" t="s">
+        <v>331</v>
+      </c>
+      <c r="D16" s="2">
+        <v>44212</v>
+      </c>
+      <c r="E16" t="s">
         <v>472</v>
       </c>
-      <c r="G15" t="s">
-        <v>328</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" t="s">
-        <v>329</v>
-      </c>
-      <c r="D16" s="2">
-        <v>44212</v>
-      </c>
-      <c r="E16" t="s">
-        <v>470</v>
-      </c>
       <c r="F16" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G16" t="s">
-        <v>329</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+      <c r="H16" t="s">
+        <v>492</v>
+      </c>
+      <c r="I16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C17" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D17" s="2">
         <v>44212</v>
@@ -2389,25 +2344,27 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G17" t="s">
-        <v>330</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="H17" t="s">
+        <v>492</v>
+      </c>
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C18" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D18" s="2">
         <v>44212</v>
@@ -2416,25 +2373,24 @@
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G18" t="s">
-        <v>331</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="H18" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D19" s="2">
         <v>44213</v>
@@ -2443,25 +2399,27 @@
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G19" t="s">
-        <v>332</v>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+      <c r="H19" t="s">
+        <v>492</v>
+      </c>
+      <c r="I19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C20" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D20" s="2">
         <v>44212</v>
@@ -2470,25 +2428,27 @@
         <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G20" t="s">
-        <v>333</v>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+      <c r="H20" t="s">
+        <v>492</v>
+      </c>
+      <c r="I20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C21" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D21" s="2">
         <v>44212</v>
@@ -2497,25 +2457,27 @@
         <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G21" t="s">
-        <v>334</v>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="H21" t="s">
+        <v>492</v>
+      </c>
+      <c r="I21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C22" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D22" s="2">
         <v>44212</v>
@@ -2524,25 +2486,27 @@
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G22" t="s">
-        <v>335</v>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="H22" t="s">
+        <v>492</v>
+      </c>
+      <c r="I22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C23" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D23" s="2">
         <v>44212</v>
@@ -2551,25 +2515,27 @@
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G23" t="s">
-        <v>336</v>
-      </c>
-      <c r="H23" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="H23" t="s">
+        <v>492</v>
+      </c>
+      <c r="I23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C24" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D24" s="2">
         <v>44212</v>
@@ -2578,25 +2544,27 @@
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G24" t="s">
-        <v>337</v>
-      </c>
-      <c r="H24" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+      <c r="H24" t="s">
+        <v>492</v>
+      </c>
+      <c r="I24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C25" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D25" s="2">
         <v>44212</v>
@@ -2605,25 +2573,27 @@
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G25" t="s">
-        <v>338</v>
-      </c>
-      <c r="H25" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="H25" t="s">
+        <v>492</v>
+      </c>
+      <c r="I25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C26" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D26" s="2">
         <v>44212</v>
@@ -2632,25 +2602,27 @@
         <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G26" t="s">
-        <v>339</v>
-      </c>
-      <c r="H26" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="H26" t="s">
+        <v>492</v>
+      </c>
+      <c r="I26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C27" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D27" s="2">
         <v>44212</v>
@@ -2659,25 +2631,27 @@
         <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G27" t="s">
-        <v>340</v>
-      </c>
-      <c r="H27" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+      <c r="H27" t="s">
+        <v>492</v>
+      </c>
+      <c r="I27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C28" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D28" s="2">
         <v>44212</v>
@@ -2686,25 +2660,27 @@
         <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G28" t="s">
-        <v>341</v>
-      </c>
-      <c r="H28" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="H28" t="s">
+        <v>492</v>
+      </c>
+      <c r="I28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C29" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D29" s="2">
         <v>44212</v>
@@ -2713,25 +2689,27 @@
         <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G29" t="s">
-        <v>342</v>
-      </c>
-      <c r="H29" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="H29" t="s">
+        <v>492</v>
+      </c>
+      <c r="I29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C30" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D30" s="2">
         <v>44212</v>
@@ -2740,25 +2718,27 @@
         <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G30" t="s">
-        <v>343</v>
-      </c>
-      <c r="H30" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+      <c r="H30" t="s">
+        <v>492</v>
+      </c>
+      <c r="I30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C31" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D31" s="2">
         <v>44212</v>
@@ -2767,25 +2747,27 @@
         <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G31" t="s">
-        <v>344</v>
-      </c>
-      <c r="H31" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="H31" t="s">
+        <v>492</v>
+      </c>
+      <c r="I31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C32" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D32" s="2">
         <v>44212</v>
@@ -2794,25 +2776,27 @@
         <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G32" t="s">
-        <v>345</v>
-      </c>
-      <c r="H32" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+      <c r="H32" t="s">
+        <v>492</v>
+      </c>
+      <c r="I32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C33" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D33" s="2">
         <v>44212</v>
@@ -2821,25 +2805,27 @@
         <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G33" t="s">
-        <v>346</v>
-      </c>
-      <c r="H33" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="H33" t="s">
+        <v>492</v>
+      </c>
+      <c r="I33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C34" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D34" s="2">
         <v>44198</v>
@@ -2848,25 +2834,27 @@
         <v>4</v>
       </c>
       <c r="F34" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G34" t="s">
-        <v>474</v>
-      </c>
-      <c r="H34" t="str">
-        <f t="shared" si="0"/>
-        <v>No Match</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+      <c r="H34" t="s">
+        <v>491</v>
+      </c>
+      <c r="I34" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C35" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D35" s="2">
         <v>44198</v>
@@ -2875,25 +2863,27 @@
         <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G35" t="s">
-        <v>475</v>
-      </c>
-      <c r="H35" t="str">
-        <f t="shared" si="0"/>
-        <v>No Match</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H35" t="s">
+        <v>491</v>
+      </c>
+      <c r="I35" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C36" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D36" s="2">
         <v>44198</v>
@@ -2902,25 +2892,27 @@
         <v>4</v>
       </c>
       <c r="F36" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G36" t="s">
-        <v>476</v>
-      </c>
-      <c r="H36" t="str">
-        <f t="shared" si="0"/>
-        <v>No Match</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+      <c r="H36" t="s">
+        <v>491</v>
+      </c>
+      <c r="I36" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C37" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D37" s="2">
         <v>44210</v>
@@ -2929,25 +2921,27 @@
         <v>4</v>
       </c>
       <c r="F37" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G37" t="s">
-        <v>350</v>
-      </c>
-      <c r="H37" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="H37" t="s">
+        <v>492</v>
+      </c>
+      <c r="I37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C38" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D38" s="2">
         <v>44212</v>
@@ -2956,25 +2950,27 @@
         <v>4</v>
       </c>
       <c r="F38" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G38" t="s">
-        <v>351</v>
-      </c>
-      <c r="H38" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+      <c r="H38" t="s">
+        <v>492</v>
+      </c>
+      <c r="I38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C39" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D39" s="2">
         <v>44212</v>
@@ -2983,25 +2979,27 @@
         <v>4</v>
       </c>
       <c r="F39" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G39" t="s">
-        <v>352</v>
-      </c>
-      <c r="H39" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="H39" t="s">
+        <v>492</v>
+      </c>
+      <c r="I39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C40" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D40" s="2">
         <v>44212</v>
@@ -3010,25 +3008,27 @@
         <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G40" t="s">
-        <v>353</v>
-      </c>
-      <c r="H40" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="H40" t="s">
+        <v>492</v>
+      </c>
+      <c r="I40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C41" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D41" s="2">
         <v>44212</v>
@@ -3037,25 +3037,27 @@
         <v>4</v>
       </c>
       <c r="F41" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G41" t="s">
-        <v>354</v>
-      </c>
-      <c r="H41" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="H41" t="s">
+        <v>492</v>
+      </c>
+      <c r="I41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C42" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D42" s="2">
         <v>44212</v>
@@ -3064,25 +3066,27 @@
         <v>4</v>
       </c>
       <c r="F42" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G42" t="s">
-        <v>355</v>
-      </c>
-      <c r="H42" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+      <c r="H42" t="s">
+        <v>492</v>
+      </c>
+      <c r="I42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C43" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D43" s="2">
         <v>44212</v>
@@ -3091,25 +3095,27 @@
         <v>4</v>
       </c>
       <c r="F43" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G43" t="s">
-        <v>356</v>
-      </c>
-      <c r="H43" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="H43" t="s">
+        <v>492</v>
+      </c>
+      <c r="I43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C44" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D44" s="2">
         <v>44212</v>
@@ -3118,25 +3124,27 @@
         <v>4</v>
       </c>
       <c r="F44" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G44" t="s">
-        <v>357</v>
-      </c>
-      <c r="H44" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="H44" t="s">
+        <v>492</v>
+      </c>
+      <c r="I44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C45" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D45" s="2">
         <v>44212</v>
@@ -3145,25 +3153,27 @@
         <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G45" t="s">
-        <v>358</v>
-      </c>
-      <c r="H45" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="H45" t="s">
+        <v>492</v>
+      </c>
+      <c r="I45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C46" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D46" s="2">
         <v>44212</v>
@@ -3172,25 +3182,27 @@
         <v>4</v>
       </c>
       <c r="F46" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G46" t="s">
-        <v>359</v>
-      </c>
-      <c r="H46" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+      <c r="H46" t="s">
+        <v>492</v>
+      </c>
+      <c r="I46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C47" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D47" s="2">
         <v>44212</v>
@@ -3199,25 +3211,27 @@
         <v>4</v>
       </c>
       <c r="F47" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G47" t="s">
-        <v>360</v>
-      </c>
-      <c r="H47" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+      <c r="H47" t="s">
+        <v>492</v>
+      </c>
+      <c r="I47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C48" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D48" s="2">
         <v>44212</v>
@@ -3226,25 +3240,27 @@
         <v>4</v>
       </c>
       <c r="F48" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G48" t="s">
-        <v>361</v>
-      </c>
-      <c r="H48" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+      <c r="H48" t="s">
+        <v>492</v>
+      </c>
+      <c r="I48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C49" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D49" s="2">
         <v>44212</v>
@@ -3253,25 +3269,27 @@
         <v>4</v>
       </c>
       <c r="F49" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G49" t="s">
-        <v>362</v>
-      </c>
-      <c r="H49" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+      <c r="H49" t="s">
+        <v>492</v>
+      </c>
+      <c r="I49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C50" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D50" s="2">
         <v>44212</v>
@@ -3280,25 +3298,27 @@
         <v>4</v>
       </c>
       <c r="F50" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G50" t="s">
-        <v>363</v>
-      </c>
-      <c r="H50" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+      <c r="H50" t="s">
+        <v>492</v>
+      </c>
+      <c r="I50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C51" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D51" s="2">
         <v>44212</v>
@@ -3307,25 +3327,27 @@
         <v>4</v>
       </c>
       <c r="F51" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G51" t="s">
-        <v>364</v>
-      </c>
-      <c r="H51" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+      <c r="H51" t="s">
+        <v>492</v>
+      </c>
+      <c r="I51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C52" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D52" s="2">
         <v>44212</v>
@@ -3334,25 +3356,27 @@
         <v>4</v>
       </c>
       <c r="F52" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G52" t="s">
-        <v>365</v>
-      </c>
-      <c r="H52" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+      <c r="H52" t="s">
+        <v>492</v>
+      </c>
+      <c r="I52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C53" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D53" s="2">
         <v>44212</v>
@@ -3361,25 +3385,27 @@
         <v>4</v>
       </c>
       <c r="F53" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G53" t="s">
-        <v>366</v>
-      </c>
-      <c r="H53" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+      <c r="H53" t="s">
+        <v>492</v>
+      </c>
+      <c r="I53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C54" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D54" s="2">
         <v>44212</v>
@@ -3388,25 +3414,27 @@
         <v>4</v>
       </c>
       <c r="F54" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G54" t="s">
-        <v>367</v>
-      </c>
-      <c r="H54" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+      <c r="H54" t="s">
+        <v>492</v>
+      </c>
+      <c r="I54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C55" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D55" s="2">
         <v>44212</v>
@@ -3415,25 +3443,27 @@
         <v>4</v>
       </c>
       <c r="F55" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G55" t="s">
-        <v>368</v>
-      </c>
-      <c r="H55" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+      <c r="H55" t="s">
+        <v>492</v>
+      </c>
+      <c r="I55" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C56" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D56" s="2">
         <v>44212</v>
@@ -3442,25 +3472,27 @@
         <v>4</v>
       </c>
       <c r="F56" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G56" t="s">
-        <v>369</v>
-      </c>
-      <c r="H56" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+      <c r="H56" t="s">
+        <v>492</v>
+      </c>
+      <c r="I56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C57" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D57" s="2">
         <v>44212</v>
@@ -3469,25 +3501,27 @@
         <v>4</v>
       </c>
       <c r="F57" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G57" t="s">
-        <v>370</v>
-      </c>
-      <c r="H57" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+      <c r="H57" t="s">
+        <v>492</v>
+      </c>
+      <c r="I57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C58" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D58" s="2">
         <v>44212</v>
@@ -3496,25 +3530,27 @@
         <v>4</v>
       </c>
       <c r="F58" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G58" t="s">
-        <v>371</v>
-      </c>
-      <c r="H58" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+      <c r="H58" t="s">
+        <v>492</v>
+      </c>
+      <c r="I58" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C59" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D59" s="2">
         <v>44212</v>
@@ -3523,25 +3559,27 @@
         <v>4</v>
       </c>
       <c r="F59" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G59" t="s">
-        <v>372</v>
-      </c>
-      <c r="H59" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+      <c r="H59" t="s">
+        <v>492</v>
+      </c>
+      <c r="I59" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C60" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D60" s="2">
         <v>44212</v>
@@ -3550,25 +3588,27 @@
         <v>4</v>
       </c>
       <c r="F60" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G60" t="s">
-        <v>373</v>
-      </c>
-      <c r="H60" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+      <c r="H60" t="s">
+        <v>492</v>
+      </c>
+      <c r="I60" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C61" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D61" s="2">
         <v>44212</v>
@@ -3577,25 +3617,27 @@
         <v>4</v>
       </c>
       <c r="F61" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G61" t="s">
-        <v>374</v>
-      </c>
-      <c r="H61" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+      <c r="H61" t="s">
+        <v>492</v>
+      </c>
+      <c r="I61" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C62" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D62" s="2">
         <v>44213</v>
@@ -3604,25 +3646,27 @@
         <v>4</v>
       </c>
       <c r="F62" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G62" t="s">
-        <v>375</v>
-      </c>
-      <c r="H62" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+      <c r="H62" t="s">
+        <v>492</v>
+      </c>
+      <c r="I62" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C63" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D63" s="2">
         <v>44212</v>
@@ -3631,25 +3675,27 @@
         <v>4</v>
       </c>
       <c r="F63" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G63" t="s">
-        <v>376</v>
-      </c>
-      <c r="H63" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+      <c r="H63" t="s">
+        <v>492</v>
+      </c>
+      <c r="I63" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C64" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D64" s="2">
         <v>44212</v>
@@ -3658,25 +3704,27 @@
         <v>4</v>
       </c>
       <c r="F64" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G64" t="s">
-        <v>377</v>
-      </c>
-      <c r="H64" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+      <c r="H64" t="s">
+        <v>492</v>
+      </c>
+      <c r="I64" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C65" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D65" s="2">
         <v>44212</v>
@@ -3685,25 +3733,27 @@
         <v>4</v>
       </c>
       <c r="F65" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G65" t="s">
-        <v>378</v>
-      </c>
-      <c r="H65" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+      <c r="H65" t="s">
+        <v>492</v>
+      </c>
+      <c r="I65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C66" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D66" s="2">
         <v>44213</v>
@@ -3712,25 +3762,27 @@
         <v>4</v>
       </c>
       <c r="F66" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G66" t="s">
-        <v>379</v>
-      </c>
-      <c r="H66" t="str">
-        <f t="shared" si="0"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+      <c r="H66" t="s">
+        <v>492</v>
+      </c>
+      <c r="I66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C67" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D67" s="2">
         <v>44212</v>
@@ -3739,25 +3791,27 @@
         <v>4</v>
       </c>
       <c r="F67" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G67" t="s">
-        <v>380</v>
-      </c>
-      <c r="H67" t="str">
-        <f t="shared" ref="H67:H130" si="1">IF(C67=G67,"Match","No Match")</f>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+      <c r="H67" t="s">
+        <v>492</v>
+      </c>
+      <c r="I67" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C68" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D68" s="2">
         <v>44213</v>
@@ -3766,25 +3820,27 @@
         <v>4</v>
       </c>
       <c r="F68" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G68" t="s">
-        <v>381</v>
-      </c>
-      <c r="H68" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+      <c r="H68" t="s">
+        <v>492</v>
+      </c>
+      <c r="I68" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C69" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D69" s="2">
         <v>44212</v>
@@ -3793,25 +3849,27 @@
         <v>4</v>
       </c>
       <c r="F69" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G69" t="s">
-        <v>382</v>
-      </c>
-      <c r="H69" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+      <c r="H69" t="s">
+        <v>492</v>
+      </c>
+      <c r="I69" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C70" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D70" s="2">
         <v>44212</v>
@@ -3820,25 +3878,27 @@
         <v>4</v>
       </c>
       <c r="F70" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G70" t="s">
-        <v>383</v>
-      </c>
-      <c r="H70" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="H70" t="s">
+        <v>492</v>
+      </c>
+      <c r="I70" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C71" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D71" s="2">
         <v>44212</v>
@@ -3847,25 +3907,27 @@
         <v>4</v>
       </c>
       <c r="F71" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G71" t="s">
-        <v>384</v>
-      </c>
-      <c r="H71" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+      <c r="H71" t="s">
+        <v>492</v>
+      </c>
+      <c r="I71" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C72" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D72" s="2">
         <v>44213</v>
@@ -3874,25 +3936,27 @@
         <v>4</v>
       </c>
       <c r="F72" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G72" t="s">
-        <v>385</v>
-      </c>
-      <c r="H72" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="H72" t="s">
+        <v>492</v>
+      </c>
+      <c r="I72" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C73" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D73" s="2">
         <v>44212</v>
@@ -3901,2238 +3965,2319 @@
         <v>4</v>
       </c>
       <c r="F73" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G73" t="s">
-        <v>386</v>
-      </c>
-      <c r="H73" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="H73" t="s">
+        <v>492</v>
+      </c>
+      <c r="I73" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C74" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D74" s="2">
         <v>44212</v>
       </c>
       <c r="E74" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F74" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G74" t="s">
-        <v>387</v>
-      </c>
-      <c r="H74" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+      <c r="H74" t="s">
+        <v>492</v>
+      </c>
+      <c r="I74" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C75" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D75" s="2">
         <v>44212</v>
       </c>
       <c r="E75" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F75" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G75" t="s">
-        <v>388</v>
-      </c>
-      <c r="H75" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="H75" t="s">
+        <v>492</v>
+      </c>
+      <c r="I75" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C76" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D76" s="2">
         <v>44212</v>
       </c>
       <c r="E76" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F76" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G76" t="s">
-        <v>389</v>
-      </c>
-      <c r="H76" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+      <c r="H76" t="s">
+        <v>492</v>
+      </c>
+      <c r="I76" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C77" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D77" s="2">
         <v>44212</v>
       </c>
       <c r="E77" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F77" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G77" t="s">
-        <v>390</v>
-      </c>
-      <c r="H77" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+      <c r="H77" t="s">
+        <v>492</v>
+      </c>
+      <c r="I77" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C78" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D78" s="2">
         <v>44212</v>
       </c>
       <c r="E78" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F78" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G78" t="s">
-        <v>391</v>
-      </c>
-      <c r="H78" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+      <c r="H78" t="s">
+        <v>492</v>
+      </c>
+      <c r="I78" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C79" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D79" s="2">
         <v>44212</v>
       </c>
       <c r="E79" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F79" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G79" t="s">
-        <v>392</v>
-      </c>
-      <c r="H79" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+      <c r="H79" t="s">
+        <v>492</v>
+      </c>
+      <c r="I79" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C80" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D80" s="2">
         <v>44212</v>
       </c>
       <c r="E80" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F80" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G80" t="s">
-        <v>477</v>
-      </c>
-      <c r="H80" t="str">
-        <f t="shared" si="1"/>
-        <v>No Match</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+      <c r="H80" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B81" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C81" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D81" s="2">
         <v>44212</v>
       </c>
       <c r="E81" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F81" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G81" t="s">
-        <v>394</v>
-      </c>
-      <c r="H81" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+      <c r="H81" t="s">
+        <v>492</v>
+      </c>
+      <c r="I81" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C82" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D82" s="2">
         <v>44212</v>
       </c>
       <c r="E82" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F82" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G82" t="s">
-        <v>478</v>
-      </c>
-      <c r="H82" t="str">
-        <f t="shared" si="1"/>
-        <v>No Match</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+      <c r="H82" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C83" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D83" s="2">
         <v>44212</v>
       </c>
       <c r="E83" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F83" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G83" t="s">
-        <v>396</v>
-      </c>
-      <c r="H83" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+      <c r="H83" t="s">
+        <v>492</v>
+      </c>
+      <c r="I83" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B84" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C84" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D84" s="2">
         <v>44212</v>
       </c>
       <c r="E84" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F84" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G84" t="s">
-        <v>397</v>
-      </c>
-      <c r="H84" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+      <c r="H84" t="s">
+        <v>492</v>
+      </c>
+      <c r="I84" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B85" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C85" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D85" s="2">
         <v>44212</v>
       </c>
       <c r="E85" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F85" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G85" t="s">
-        <v>398</v>
-      </c>
-      <c r="H85" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="H85" t="s">
+        <v>492</v>
+      </c>
+      <c r="I85" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B86" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C86" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D86" s="2">
         <v>44212</v>
       </c>
       <c r="E86" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F86" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G86" t="s">
-        <v>399</v>
-      </c>
-      <c r="H86" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+      <c r="H86" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B87" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C87" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D87" s="2">
         <v>44212</v>
       </c>
       <c r="E87" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F87" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G87" t="s">
-        <v>400</v>
-      </c>
-      <c r="H87" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+      <c r="H87" t="s">
+        <v>492</v>
+      </c>
+      <c r="I87" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B88" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C88" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D88" s="2">
         <v>44210</v>
       </c>
       <c r="E88" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F88" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G88" t="s">
-        <v>401</v>
-      </c>
-      <c r="H88" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+      <c r="H88" t="s">
+        <v>492</v>
+      </c>
+      <c r="I88" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B89" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C89" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D89" s="2">
         <v>44198</v>
       </c>
       <c r="E89" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F89" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G89" t="s">
-        <v>479</v>
-      </c>
-      <c r="H89" t="str">
-        <f t="shared" si="1"/>
-        <v>No Match</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+      <c r="H89" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B90" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C90" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D90" s="2">
         <v>44198</v>
       </c>
       <c r="E90" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F90" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G90" t="s">
-        <v>480</v>
-      </c>
-      <c r="H90" t="str">
-        <f t="shared" si="1"/>
-        <v>No Match</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+      <c r="H90" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B91" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C91" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D91" s="2">
         <v>44203</v>
       </c>
       <c r="E91" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F91" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G91" t="s">
-        <v>481</v>
-      </c>
-      <c r="H91" t="str">
-        <f t="shared" si="1"/>
-        <v>No Match</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+      <c r="H91" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B92" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C92" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D92" s="2">
         <v>44203</v>
       </c>
       <c r="E92" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F92" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G92" t="s">
-        <v>482</v>
-      </c>
-      <c r="H92" t="str">
-        <f t="shared" si="1"/>
-        <v>No Match</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+      <c r="H92" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B93" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C93" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D93" s="2">
         <v>44203</v>
       </c>
       <c r="E93" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F93" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G93" t="s">
-        <v>483</v>
-      </c>
-      <c r="H93" t="str">
-        <f t="shared" si="1"/>
-        <v>No Match</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+      <c r="H93" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B94" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C94" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D94" s="2">
         <v>44205</v>
       </c>
       <c r="E94" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F94" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G94" t="s">
-        <v>484</v>
-      </c>
-      <c r="H94" t="str">
-        <f t="shared" si="1"/>
-        <v>No Match</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+      <c r="H94" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B95" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C95" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D95" s="2">
         <v>44209</v>
       </c>
       <c r="E95" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F95" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G95" t="s">
-        <v>408</v>
-      </c>
-      <c r="H95" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+      <c r="H95" t="s">
+        <v>492</v>
+      </c>
+      <c r="I95" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C96" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D96" s="2">
         <v>44210</v>
       </c>
       <c r="E96" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F96" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G96" t="s">
-        <v>409</v>
-      </c>
-      <c r="H96" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+      <c r="H96" t="s">
+        <v>492</v>
+      </c>
+      <c r="I96" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C97" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D97" s="2">
         <v>44210</v>
       </c>
       <c r="E97" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F97" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G97" t="s">
-        <v>410</v>
-      </c>
-      <c r="H97" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+      <c r="H97" t="s">
+        <v>492</v>
+      </c>
+      <c r="I97" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B98" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C98" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D98" s="2">
         <v>44212</v>
       </c>
       <c r="E98" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F98" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G98" t="s">
-        <v>411</v>
-      </c>
-      <c r="H98" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+      <c r="H98" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B99" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C99" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D99" s="2">
         <v>44212</v>
       </c>
       <c r="E99" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F99" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G99" t="s">
-        <v>412</v>
-      </c>
-      <c r="H99" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="H99" t="s">
+        <v>492</v>
+      </c>
+      <c r="I99" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B100" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C100" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D100" s="2">
         <v>44210</v>
       </c>
       <c r="E100" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F100" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G100" t="s">
-        <v>485</v>
-      </c>
-      <c r="H100" t="str">
-        <f t="shared" si="1"/>
-        <v>No Match</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+      <c r="H100" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C101" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D101" s="2">
         <v>44212</v>
       </c>
       <c r="E101" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F101" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G101" t="s">
-        <v>414</v>
-      </c>
-      <c r="H101" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+      <c r="H101" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B102" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C102" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D102" s="2">
         <v>44210</v>
       </c>
       <c r="E102" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F102" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G102" t="s">
-        <v>415</v>
-      </c>
-      <c r="H102" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="H102" t="s">
+        <v>492</v>
+      </c>
+      <c r="I102" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C103" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D103" s="2">
         <v>44210</v>
       </c>
       <c r="E103" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F103" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G103" t="s">
-        <v>416</v>
-      </c>
-      <c r="H103" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="H103" t="s">
+        <v>492</v>
+      </c>
+      <c r="I103" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B104" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C104" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D104" s="2">
         <v>44211</v>
       </c>
       <c r="E104" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F104" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G104" t="s">
-        <v>417</v>
-      </c>
-      <c r="H104" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+      <c r="H104" t="s">
+        <v>492</v>
+      </c>
+      <c r="I104" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B105" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C105" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D105" s="2">
         <v>44212</v>
       </c>
       <c r="E105" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F105" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G105" t="s">
-        <v>418</v>
-      </c>
-      <c r="H105" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+      <c r="H105" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B106" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C106" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D106" s="2">
         <v>44212</v>
       </c>
       <c r="E106" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F106" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G106" t="s">
-        <v>419</v>
-      </c>
-      <c r="H106" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+      <c r="H106" t="s">
+        <v>492</v>
+      </c>
+      <c r="I106" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B107" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C107" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D107" s="2">
         <v>44212</v>
       </c>
       <c r="E107" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F107" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G107" t="s">
-        <v>420</v>
-      </c>
-      <c r="H107" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+      <c r="H107" t="s">
+        <v>492</v>
+      </c>
+      <c r="I107" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B108" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C108" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D108" s="2">
         <v>44212</v>
       </c>
       <c r="E108" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F108" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G108" t="s">
-        <v>421</v>
-      </c>
-      <c r="H108" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+      <c r="H108" t="s">
+        <v>492</v>
+      </c>
+      <c r="I108" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B109" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C109" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D109" s="2">
         <v>44212</v>
       </c>
       <c r="E109" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F109" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G109" t="s">
-        <v>422</v>
-      </c>
-      <c r="H109" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+      <c r="H109" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B110" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C110" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D110" s="2">
         <v>44212</v>
       </c>
       <c r="E110" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F110" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G110" t="s">
-        <v>423</v>
-      </c>
-      <c r="H110" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="H110" t="s">
+        <v>492</v>
+      </c>
+      <c r="I110" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B111" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C111" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D111" s="2">
         <v>44212</v>
       </c>
       <c r="E111" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F111" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G111" t="s">
-        <v>424</v>
-      </c>
-      <c r="H111" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+      <c r="H111" t="s">
+        <v>492</v>
+      </c>
+      <c r="I111" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B112" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C112" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D112" s="2">
         <v>44212</v>
       </c>
       <c r="E112" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F112" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G112" t="s">
-        <v>425</v>
-      </c>
-      <c r="H112" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+      <c r="H112" t="s">
+        <v>492</v>
+      </c>
+      <c r="I112" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B113" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C113" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D113" s="2">
         <v>44212</v>
       </c>
       <c r="E113" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F113" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G113" t="s">
-        <v>426</v>
-      </c>
-      <c r="H113" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+      <c r="H113" t="s">
+        <v>492</v>
+      </c>
+      <c r="I113" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B114" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C114" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D114" s="2">
         <v>44212</v>
       </c>
       <c r="E114" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F114" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G114" t="s">
-        <v>427</v>
-      </c>
-      <c r="H114" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+      <c r="H114" t="s">
+        <v>492</v>
+      </c>
+      <c r="I114" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B115" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C115" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D115" s="2">
         <v>44212</v>
       </c>
       <c r="E115" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F115" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G115" t="s">
-        <v>428</v>
-      </c>
-      <c r="H115" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+      <c r="H115" t="s">
+        <v>492</v>
+      </c>
+      <c r="I115" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B116" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C116" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D116" s="2">
         <v>44212</v>
       </c>
       <c r="E116" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F116" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G116" t="s">
-        <v>429</v>
-      </c>
-      <c r="H116" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+      <c r="H116" t="s">
+        <v>492</v>
+      </c>
+      <c r="I116" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B117" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C117" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D117" s="2">
         <v>44212</v>
       </c>
       <c r="E117" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F117" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G117" t="s">
-        <v>430</v>
-      </c>
-      <c r="H117" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+      <c r="H117" t="s">
+        <v>492</v>
+      </c>
+      <c r="I117" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B118" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C118" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D118" s="2">
         <v>44212</v>
       </c>
       <c r="E118" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F118" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G118" t="s">
-        <v>431</v>
-      </c>
-      <c r="H118" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+      <c r="H118" t="s">
+        <v>492</v>
+      </c>
+      <c r="I118" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B119" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C119" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D119" s="2">
         <v>44212</v>
       </c>
       <c r="E119" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F119" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G119" t="s">
-        <v>432</v>
-      </c>
-      <c r="H119" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="H119" t="s">
+        <v>492</v>
+      </c>
+      <c r="I119" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B120" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C120" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D120" s="2">
         <v>44212</v>
       </c>
       <c r="E120" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F120" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G120" t="s">
-        <v>433</v>
-      </c>
-      <c r="H120" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+      <c r="H120" t="s">
+        <v>492</v>
+      </c>
+      <c r="I120" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B121" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C121" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D121" s="2">
         <v>44212</v>
       </c>
       <c r="E121" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F121" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G121" t="s">
-        <v>434</v>
-      </c>
-      <c r="H121" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="H121" t="s">
+        <v>492</v>
+      </c>
+      <c r="I121" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B122" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C122" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D122" s="2">
         <v>44212</v>
       </c>
       <c r="E122" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F122" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G122" t="s">
-        <v>435</v>
-      </c>
-      <c r="H122" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+      <c r="H122" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B123" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C123" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D123" s="2">
         <v>44212</v>
       </c>
       <c r="E123" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F123" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G123" t="s">
-        <v>436</v>
-      </c>
-      <c r="H123" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+      <c r="H123" t="s">
+        <v>492</v>
+      </c>
+      <c r="I123" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B124" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C124" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D124" s="2">
         <v>44212</v>
       </c>
       <c r="E124" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F124" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G124" t="s">
-        <v>437</v>
-      </c>
-      <c r="H124" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+      <c r="H124" t="s">
+        <v>492</v>
+      </c>
+      <c r="I124" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B125" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C125" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D125" s="2">
         <v>44212</v>
       </c>
       <c r="E125" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F125" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G125" t="s">
-        <v>438</v>
-      </c>
-      <c r="H125" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+      <c r="H125" t="s">
+        <v>492</v>
+      </c>
+      <c r="I125" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B126" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C126" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D126" s="2">
         <v>44212</v>
       </c>
       <c r="E126" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F126" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G126" t="s">
-        <v>486</v>
-      </c>
-      <c r="H126" t="str">
-        <f t="shared" si="1"/>
-        <v>No Match</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+      <c r="H126" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B127" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C127" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D127" s="2">
         <v>44212</v>
       </c>
       <c r="E127" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F127" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G127" t="s">
-        <v>440</v>
-      </c>
-      <c r="H127" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+      <c r="H127" t="s">
+        <v>492</v>
+      </c>
+      <c r="I127" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B128" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C128" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D128" s="2">
         <v>44212</v>
       </c>
       <c r="E128" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F128" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G128" t="s">
-        <v>441</v>
-      </c>
-      <c r="H128" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+      <c r="H128" t="s">
+        <v>492</v>
+      </c>
+      <c r="I128" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B129" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C129" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D129" s="2">
         <v>44212</v>
       </c>
       <c r="E129" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F129" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G129" t="s">
-        <v>442</v>
-      </c>
-      <c r="H129" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="H129" t="s">
+        <v>492</v>
+      </c>
+      <c r="I129" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B130" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C130" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D130" s="2">
         <v>44212</v>
       </c>
       <c r="E130" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F130" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G130" t="s">
-        <v>443</v>
-      </c>
-      <c r="H130" t="str">
-        <f t="shared" si="1"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+      <c r="H130" t="s">
+        <v>492</v>
+      </c>
+      <c r="I130" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B131" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C131" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D131" s="2">
         <v>44212</v>
       </c>
       <c r="E131" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F131" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G131" t="s">
-        <v>444</v>
-      </c>
-      <c r="H131" t="str">
-        <f t="shared" ref="H131:H155" si="2">IF(C131=G131,"Match","No Match")</f>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="H131" t="s">
+        <v>492</v>
+      </c>
+      <c r="I131" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B132" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C132" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D132" s="2">
         <v>44212</v>
       </c>
       <c r="E132" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F132" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G132" t="s">
-        <v>445</v>
-      </c>
-      <c r="H132" t="str">
-        <f t="shared" si="2"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="H132" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B133" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C133" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D133" s="2">
         <v>44212</v>
       </c>
       <c r="E133" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F133" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G133" t="s">
-        <v>446</v>
-      </c>
-      <c r="H133" t="str">
-        <f t="shared" si="2"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+      <c r="H133" t="s">
+        <v>492</v>
+      </c>
+      <c r="I133" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B134" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C134" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D134" s="2">
         <v>44212</v>
       </c>
       <c r="E134" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F134" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G134" t="s">
-        <v>447</v>
-      </c>
-      <c r="H134" t="str">
-        <f t="shared" si="2"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+      <c r="H134" t="s">
+        <v>492</v>
+      </c>
+      <c r="I134" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B135" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C135" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D135" s="2">
         <v>44212</v>
       </c>
       <c r="E135" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F135" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G135" t="s">
-        <v>448</v>
-      </c>
-      <c r="H135" t="str">
-        <f t="shared" si="2"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+      <c r="H135" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B136" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C136" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D136" s="2">
         <v>44212</v>
       </c>
       <c r="E136" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F136" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G136" t="s">
-        <v>449</v>
-      </c>
-      <c r="H136" t="str">
-        <f t="shared" si="2"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+      <c r="H136" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B137" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C137" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D137" s="2">
         <v>44212</v>
       </c>
       <c r="E137" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F137" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G137" t="s">
-        <v>450</v>
-      </c>
-      <c r="H137" t="str">
-        <f t="shared" si="2"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+      <c r="H137" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B138" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C138" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D138" s="2">
         <v>44212</v>
       </c>
       <c r="E138" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F138" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G138" t="s">
-        <v>451</v>
-      </c>
-      <c r="H138" t="str">
-        <f t="shared" si="2"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+      <c r="H138" t="s">
+        <v>492</v>
+      </c>
+      <c r="I138" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B139" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C139" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D139" s="2">
         <v>44212</v>
       </c>
       <c r="E139" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F139" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G139" t="s">
-        <v>487</v>
-      </c>
-      <c r="H139" t="str">
-        <f t="shared" si="2"/>
-        <v>No Match</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+      <c r="H139" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B140" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C140" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D140" s="2">
         <v>44212</v>
       </c>
       <c r="E140" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F140" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G140" t="s">
-        <v>488</v>
-      </c>
-      <c r="H140" t="str">
-        <f t="shared" si="2"/>
-        <v>No Match</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+      <c r="H140" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B141" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C141" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D141" s="2">
         <v>44212</v>
       </c>
       <c r="E141" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F141" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G141" t="s">
-        <v>454</v>
-      </c>
-      <c r="H141" t="str">
-        <f t="shared" si="2"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+      <c r="H141" t="s">
+        <v>492</v>
+      </c>
+      <c r="I141" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B142" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C142" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D142" s="2">
         <v>44212</v>
       </c>
       <c r="E142" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F142" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G142" t="s">
-        <v>455</v>
-      </c>
-      <c r="H142" t="str">
-        <f t="shared" si="2"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+      <c r="H142" t="s">
+        <v>492</v>
+      </c>
+      <c r="I142" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B143" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C143" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D143" s="2">
         <v>44212</v>
       </c>
       <c r="E143" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F143" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G143" t="s">
-        <v>456</v>
-      </c>
-      <c r="H143" t="str">
-        <f t="shared" si="2"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+      <c r="H143" t="s">
+        <v>492</v>
+      </c>
+      <c r="I143" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B144" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C144" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D144" s="2">
         <v>44212</v>
       </c>
       <c r="E144" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F144" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G144" t="s">
-        <v>457</v>
-      </c>
-      <c r="H144" t="str">
-        <f t="shared" si="2"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H144" t="s">
+        <v>492</v>
+      </c>
+      <c r="I144" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B145" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C145" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D145" s="2">
         <v>44212</v>
       </c>
       <c r="E145" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F145" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G145" t="s">
-        <v>458</v>
-      </c>
-      <c r="H145" t="str">
-        <f t="shared" si="2"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+      <c r="H145" t="s">
+        <v>492</v>
+      </c>
+      <c r="I145" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B146" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C146" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D146" s="2">
         <v>44212</v>
       </c>
       <c r="E146" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F146" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G146" t="s">
-        <v>459</v>
-      </c>
-      <c r="H146" t="str">
-        <f t="shared" si="2"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+      <c r="H146" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B147" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C147" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D147" s="2">
         <v>44212</v>
       </c>
       <c r="E147" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F147" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G147" t="s">
-        <v>460</v>
-      </c>
-      <c r="H147" t="str">
-        <f t="shared" si="2"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+      <c r="H147" t="s">
+        <v>492</v>
+      </c>
+      <c r="I147" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B148" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C148" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D148" s="2">
         <v>44212</v>
       </c>
       <c r="E148" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F148" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G148" t="s">
-        <v>461</v>
-      </c>
-      <c r="H148" t="str">
-        <f t="shared" si="2"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+      <c r="H148" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B149" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C149" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D149" s="2">
         <v>44212</v>
       </c>
       <c r="E149" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F149" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G149" t="s">
-        <v>462</v>
-      </c>
-      <c r="H149" t="str">
-        <f t="shared" si="2"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+      <c r="H149" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B150" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C150" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D150" s="2">
         <v>44212</v>
       </c>
       <c r="E150" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F150" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G150" t="s">
-        <v>463</v>
-      </c>
-      <c r="H150" t="str">
-        <f t="shared" si="2"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+      <c r="H150" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B151" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C151" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D151" s="2">
         <v>44212</v>
       </c>
       <c r="E151" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F151" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G151" t="s">
-        <v>464</v>
-      </c>
-      <c r="H151" t="str">
-        <f t="shared" si="2"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+      <c r="H151" t="s">
+        <v>492</v>
+      </c>
+      <c r="I151" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B152" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C152" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D152" s="2">
         <v>44212</v>
       </c>
       <c r="E152" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F152" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G152" t="s">
-        <v>465</v>
-      </c>
-      <c r="H152" t="str">
-        <f t="shared" si="2"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+      <c r="H152" t="s">
+        <v>492</v>
+      </c>
+      <c r="I152" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B153" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C153" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D153" s="2">
         <v>44212</v>
       </c>
       <c r="E153" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F153" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G153" t="s">
-        <v>466</v>
-      </c>
-      <c r="H153" t="str">
-        <f t="shared" si="2"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+      <c r="H153" t="s">
+        <v>492</v>
+      </c>
+      <c r="I153" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B154" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C154" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D154" s="2">
         <v>44212</v>
       </c>
       <c r="E154" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F154" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G154" t="s">
-        <v>467</v>
-      </c>
-      <c r="H154" t="str">
-        <f t="shared" si="2"/>
-        <v>Match</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+      <c r="H154" t="s">
+        <v>492</v>
+      </c>
+      <c r="I154" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B155" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C155" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D155" s="2">
         <v>44215</v>
       </c>
       <c r="E155" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F155" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G155" t="s">
-        <v>468</v>
-      </c>
-      <c r="H155" t="str">
-        <f t="shared" si="2"/>
-        <v>Match</v>
+        <v>470</v>
+      </c>
+      <c r="H155" t="s">
+        <v>492</v>
+      </c>
+      <c r="I155" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H155" xr:uid="{9DF0D002-4B59-4EBB-82CC-9D6BC73E37F9}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="No Match"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>